--- a/biology/Zoologie/Bufoides_meghalayanus/Bufoides_meghalayanus.xlsx
+++ b/biology/Zoologie/Bufoides_meghalayanus/Bufoides_meghalayanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufoides meghalayanus, unique représentant du genre Bufoides, est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufoides meghalayanus, unique représentant du genre Bufoides, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre dans les États du Mizoram, d'Assam et du Meghalaya au Sud-Est de Cherrapunji.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre dans les États du Mizoram, d'Assam et du Meghalaya au Sud-Est de Cherrapunji.
 Sa présence est incertaine au Bangladesh.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Meghalaya.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yazdani &amp; Chanda, 1971 : A new toad. Ansonia meghalayana (family Bufonidae) from Meghalaya (Assam), India, with observations on its breeding on Pandanus furcatus Roxb. (Pandanales: Pandanaceae). Journal of Assam Science Society, vol. 14, no 1, p. 76-80.
 Pillai &amp; Yazdani, 1971 : Bufoides, a new genus for the rock-toad, Ansonia meghalayana Yazdani &amp; Chanda, with notes on its ecology and breeding habits. Journal of the Zoological Society of India, vol. 25, no 1/2, p. 65-70.</t>
